--- a/LEDs.xlsx
+++ b/LEDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Kenndaten" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
   <si>
     <t>Quelle</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Gesamtanteil</t>
   </si>
   <si>
-    <t>Pattern</t>
-  </si>
-  <si>
     <t>gesamt</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>618nm</t>
   </si>
   <si>
-    <t>LED SMD 3529</t>
-  </si>
-  <si>
     <t>LED SMD 0,5 11BL</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>LED SMD 3535</t>
   </si>
   <si>
-    <t>LED SMD 3536</t>
-  </si>
-  <si>
     <t>LED SMD 1W 60RT</t>
   </si>
   <si>
@@ -368,6 +359,33 @@
   </si>
   <si>
     <t>PLCC-6 (5050)</t>
+  </si>
+  <si>
+    <t>Leistung (W)</t>
+  </si>
+  <si>
+    <t>Lichtstrom (lm)</t>
+  </si>
+  <si>
+    <t>EinzelLEDs Everstar 5730 0.5W</t>
+  </si>
+  <si>
+    <t>IKEA VÄXER 10W</t>
+  </si>
+  <si>
+    <t>Weissanteil</t>
+  </si>
+  <si>
+    <t>IKEA VÄXER 16W</t>
+  </si>
+  <si>
+    <t>lumen</t>
+  </si>
+  <si>
+    <t>lumen gesamt</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
   </si>
 </sst>
 </file>
@@ -495,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -536,6 +554,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -555,7 +582,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -591,15 +618,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyBorder="1"/>
@@ -607,15 +625,30 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20 % - Akzent5" xfId="3" builtinId="46"/>
@@ -646,15 +679,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -676,7 +709,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="85725" y="3590925"/>
+          <a:off x="419100" y="3752850"/>
           <a:ext cx="3333750" cy="2000250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -986,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -999,9 +1032,12 @@
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" customWidth="1"/>
+    <col min="7" max="7" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -1009,7 +1045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>66</v>
       </c>
@@ -1017,7 +1053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -1026,12 +1062,17 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="22" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="25" t="s">
         <v>4</v>
       </c>
@@ -1047,11 +1088,23 @@
       <c r="E11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1062,22 +1115,33 @@
         <v>140</v>
       </c>
       <c r="D12" s="23">
-        <f>C12/$C$17</f>
+        <f>C12/$C$19</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="E12" s="23">
         <f>C12/SUM($C$12:$C$14)</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="F12">
-        <v>18</v>
-      </c>
-      <c r="G12" s="23">
-        <f>F12/$F$17</f>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="50">
+        <v>12</v>
+      </c>
+      <c r="G12" s="34">
+        <v>55</v>
+      </c>
+      <c r="H12" s="34">
+        <f>F12*G12</f>
+        <v>660</v>
+      </c>
+      <c r="I12" s="23">
+        <f>F12/$F$20</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="J12" s="23">
+        <f>F12/SUM(F$12:F$14)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1088,22 +1152,33 @@
         <v>204</v>
       </c>
       <c r="D13" s="23">
-        <f>C13/$C$17</f>
+        <f>C13/$C$19</f>
         <v>0.40476190476190477</v>
       </c>
       <c r="E13" s="23">
         <f t="shared" ref="E13:E14" si="0">C13/SUM($C$12:$C$14)</f>
         <v>0.52040816326530615</v>
       </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13" s="23">
-        <f t="shared" ref="G13:G16" si="1">F13/$F$17</f>
-        <v>0.3968253968253968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="50">
+        <v>18</v>
+      </c>
+      <c r="G13" s="34">
+        <v>55</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" ref="H13:H18" si="1">F13*G13</f>
+        <v>990</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" ref="I13:I14" si="2">F13/$F$20</f>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="J13" s="23">
+        <f t="shared" ref="J13:J14" si="3">F13/SUM(F$12:F$14)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1114,83 +1189,178 @@
         <v>48</v>
       </c>
       <c r="D14" s="23">
-        <f>C14/$C$17</f>
+        <f>C14/$C$19</f>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="E14" s="23">
         <f t="shared" si="0"/>
         <v>0.12244897959183673</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="50">
         <v>6</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="34">
+        <v>55</v>
+      </c>
+      <c r="H14" s="34">
         <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="2"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="50">
+        <f>SUM(F12:F14)</f>
+        <v>36</v>
+      </c>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <v>48</v>
+      </c>
+      <c r="D17" s="23">
+        <f>C17/$C$19</f>
         <v>9.5238095238095233E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15">
-        <v>48</v>
-      </c>
-      <c r="D15" s="23">
-        <f>C15/$C$17</f>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="F15">
+      <c r="F17" s="50">
+        <v>4</v>
+      </c>
+      <c r="G17" s="40">
+        <v>4</v>
+      </c>
+      <c r="H17" s="34">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="I17" s="23">
+        <f>F17/$F$20</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18">
+        <v>64</v>
+      </c>
+      <c r="D18" s="23">
+        <f>C18/$C$19</f>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="50">
         <v>6</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G18" s="40">
+        <v>11</v>
+      </c>
+      <c r="H18" s="34">
         <f t="shared" si="1"/>
-        <v>9.5238095238095233E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>64</v>
-      </c>
-      <c r="D16" s="23">
-        <f>C16/$C$17</f>
-        <v>0.12698412698412698</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16" s="23">
-        <f t="shared" si="1"/>
-        <v>0.12698412698412698</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15">
-      <c r="B17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="23">
+        <f>F18/$F$20</f>
+        <v>0.13043478260869565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
+      <c r="B19" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="21">
-        <f>SUM(C12:C16)</f>
+      <c r="C19" s="21">
+        <f>SUM(C12:C18)</f>
         <v>504</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="F17">
-        <f>SUM(F12:F16)</f>
-        <v>63</v>
+      <c r="D19" s="24"/>
+      <c r="F19" s="54">
+        <f>SUM(F17:F18)</f>
+        <v>10</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+    </row>
+    <row r="20" spans="1:9" ht="15">
+      <c r="B20" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="24"/>
+      <c r="F20" s="55">
+        <f>F19+F15</f>
+        <v>46</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+    </row>
+    <row r="21" spans="1:9" ht="15">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>35</v>
+      </c>
+      <c r="F21" s="21">
+        <f>0.5*F19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
+      <c r="B22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22">
+        <v>2580</v>
+      </c>
+      <c r="H22" s="21">
+        <f>SUM(H12:H18)</f>
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1865,7 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="1" t="s">
@@ -1729,8 +1899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1801,10 +1971,10 @@
         <v>9</v>
       </c>
       <c r="O2" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" t="s">
         <v>95</v>
-      </c>
-      <c r="P2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15">
@@ -1847,7 +2017,7 @@
       <c r="N3" s="2">
         <v>0.1</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="46">
         <f>Kenndaten!$B$4/'SMD LEDs'!J3</f>
         <v>90.909090909090907</v>
       </c>
@@ -1896,7 +2066,7 @@
       <c r="N4" s="2">
         <v>0.1</v>
       </c>
-      <c r="O4" s="34"/>
+      <c r="O4" s="46"/>
       <c r="P4" s="19">
         <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$3,0)</f>
         <v>48</v>
@@ -1941,7 +2111,7 @@
       <c r="N5" s="31">
         <v>0.1</v>
       </c>
-      <c r="O5" s="35"/>
+      <c r="O5" s="47"/>
       <c r="P5" s="19">
         <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$3,0)</f>
         <v>12</v>
@@ -1957,42 +2127,42 @@
       <c r="C6">
         <v>121341</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="36">
         <v>17500</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="34">
         <v>120</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="37">
         <v>55</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="34">
         <v>3</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="34">
         <v>150</v>
       </c>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41">
+      <c r="M6" s="38"/>
+      <c r="N6" s="38">
         <v>0.18</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="48">
         <f>Kenndaten!$B$4/'SMD LEDs'!J6</f>
         <v>36.363636363636367</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="39">
         <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$6,0)</f>
         <v>13</v>
       </c>
@@ -2007,37 +2177,37 @@
       <c r="C7">
         <v>121340</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="36">
         <v>17500</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="34">
         <v>120</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J7" s="37">
         <v>55</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="40">
         <v>3</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="34">
         <v>150</v>
       </c>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <v>0.18</v>
       </c>
-      <c r="O7" s="43"/>
-      <c r="P7" s="42">
+      <c r="O7" s="49"/>
+      <c r="P7" s="39">
         <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$6,0)</f>
         <v>19</v>
       </c>
@@ -2061,7 +2231,7 @@
       <c r="G8" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="36">
         <v>17500</v>
       </c>
       <c r="I8" s="26">
@@ -2080,7 +2250,7 @@
       <c r="N8" s="31">
         <v>0.18</v>
       </c>
-      <c r="O8" s="35"/>
+      <c r="O8" s="47"/>
       <c r="P8" s="32">
         <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$6,0)</f>
         <v>5</v>
@@ -2088,19 +2258,19 @@
     </row>
     <row r="9" spans="1:16" ht="15">
       <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>116</v>
+      <c r="E9" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="1">
         <v>3500</v>
@@ -2115,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M9" s="2">
         <v>0.2</v>
@@ -2123,13 +2293,13 @@
     </row>
     <row r="10" spans="1:16" ht="15">
       <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>116</v>
+      <c r="E10" s="40" t="s">
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
@@ -2150,7 +2320,7 @@
         <v>3.3</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M10" s="2">
         <v>0.2</v>
@@ -2158,19 +2328,19 @@
     </row>
     <row r="11" spans="1:16" ht="15">
       <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>115</v>
+      <c r="E11" s="40" t="s">
+        <v>112</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11" s="1">
         <v>600</v>
@@ -2184,17 +2354,17 @@
     </row>
     <row r="12" spans="1:16" ht="15">
       <c r="A12" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>98</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
-      <c r="E12" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="47" t="s">
+      <c r="E12" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="43" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="29" t="s">
@@ -2221,19 +2391,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="F13" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="H13" s="1">
         <v>3500</v>
@@ -2259,19 +2429,19 @@
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H14" s="1">
         <v>1400</v>
@@ -2300,12 +2470,12 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -2338,13 +2508,13 @@
         <v>43</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D16" s="26"/>
-      <c r="E16" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="47" t="s">
+      <c r="E16" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="43" t="s">
         <v>25</v>
       </c>
       <c r="G16" s="29" t="s">
@@ -2373,16 +2543,16 @@
       <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:14" ht="15">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2391,33 +2561,33 @@
       <c r="H17" s="1">
         <v>6000</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="40">
         <v>120</v>
       </c>
       <c r="J17" s="20">
         <v>19</v>
       </c>
-      <c r="K17" s="44">
+      <c r="K17" s="40">
         <v>2.2000000000000002</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N17" s="2">
         <v>0.27</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -2426,7 +2596,7 @@
       <c r="H18" s="1">
         <v>7000</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="40">
         <v>120</v>
       </c>
       <c r="J18" s="20">
@@ -2436,23 +2606,23 @@
         <v>3.2</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N18" s="2">
         <v>0.33</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15">
-      <c r="A19" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E19" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" s="45" t="s">
+      <c r="A19" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -2461,33 +2631,33 @@
       <c r="H19" s="1">
         <v>1500</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="40">
         <v>120</v>
       </c>
       <c r="J19" s="20">
         <v>4.7</v>
       </c>
-      <c r="K19" s="44">
+      <c r="K19" s="40">
         <v>2.2000000000000002</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N19" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15">
-      <c r="A20" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="49" t="s">
+      <c r="A20" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -2496,7 +2666,7 @@
       <c r="H20" s="1">
         <v>1000</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="40">
         <v>120</v>
       </c>
       <c r="J20" s="20">
@@ -2506,7 +2676,7 @@
         <v>3.2</v>
       </c>
       <c r="L20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N20" s="2">
         <v>0.33</v>

--- a/LEDs.xlsx
+++ b/LEDs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740"/>
+    <workbookView xWindow="270" yWindow="600" windowWidth="28215" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kenndaten" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="123">
   <si>
     <t>Quelle</t>
   </si>
@@ -316,9 +316,6 @@
     <t>630nm</t>
   </si>
   <si>
-    <t>3x20</t>
-  </si>
-  <si>
     <t>NSPB510BS</t>
   </si>
   <si>
@@ -386,6 +383,9 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Rv</t>
   </si>
 </sst>
 </file>
@@ -631,6 +631,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,12 +649,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20 % - Akzent5" xfId="3" builtinId="46"/>
@@ -1021,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -1066,8 +1066,8 @@
       <c r="A10" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="50" t="s">
-        <v>116</v>
+      <c r="F10" s="46" t="s">
+        <v>115</v>
       </c>
       <c r="G10" s="34"/>
       <c r="H10" s="34"/>
@@ -1088,20 +1088,20 @@
       <c r="E11" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="F11" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="G11" s="53" t="s">
+      <c r="G11" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="H11" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="52" t="s">
+      <c r="I11" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="J11" s="52" t="s">
-        <v>118</v>
+      <c r="J11" s="48" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1122,7 +1122,7 @@
         <f>C12/SUM($C$12:$C$14)</f>
         <v>0.35714285714285715</v>
       </c>
-      <c r="F12" s="50">
+      <c r="F12" s="46">
         <v>12</v>
       </c>
       <c r="G12" s="34">
@@ -1159,7 +1159,7 @@
         <f t="shared" ref="E13:E14" si="0">C13/SUM($C$12:$C$14)</f>
         <v>0.52040816326530615</v>
       </c>
-      <c r="F13" s="50">
+      <c r="F13" s="46">
         <v>18</v>
       </c>
       <c r="G13" s="34">
@@ -1196,7 +1196,7 @@
         <f t="shared" si="0"/>
         <v>0.12244897959183673</v>
       </c>
-      <c r="F14" s="50">
+      <c r="F14" s="46">
         <v>6</v>
       </c>
       <c r="G14" s="34">
@@ -1218,7 +1218,7 @@
     <row r="15" spans="1:10">
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="50">
+      <c r="F15" s="46">
         <f>SUM(F12:F14)</f>
         <v>36</v>
       </c>
@@ -1230,7 +1230,7 @@
     <row r="16" spans="1:10">
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="50"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="34"/>
       <c r="H16" s="34"/>
       <c r="I16" s="23"/>
@@ -1253,7 +1253,7 @@
       <c r="E17" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="50">
+      <c r="F17" s="46">
         <v>4</v>
       </c>
       <c r="G17" s="40">
@@ -1285,7 +1285,7 @@
       <c r="E18" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="50">
+      <c r="F18" s="46">
         <v>6</v>
       </c>
       <c r="G18" s="40">
@@ -1309,7 +1309,7 @@
         <v>504</v>
       </c>
       <c r="D19" s="24"/>
-      <c r="F19" s="54">
+      <c r="F19" s="50">
         <f>SUM(F17:F18)</f>
         <v>10</v>
       </c>
@@ -1318,11 +1318,11 @@
     </row>
     <row r="20" spans="1:9" ht="15">
       <c r="B20" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="24"/>
-      <c r="F20" s="55">
+      <c r="F20" s="51">
         <f>F19+F15</f>
         <v>46</v>
       </c>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="21" spans="1:9" ht="15">
       <c r="B21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C21">
         <v>35</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="22" spans="1:9" ht="15">
       <c r="B22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22">
         <v>2580</v>
@@ -1355,12 +1355,12 @@
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D16" s="10"/>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="1" t="s">
@@ -1897,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1915,19 +1915,19 @@
     <col min="8" max="8" width="7.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.625" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="20" customWidth="1"/>
-    <col min="11" max="12" width="6.75" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="6.75" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
-      <c r="O1" t="s">
+    <row r="1" spans="1:17">
+      <c r="P1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1964,20 +1964,23 @@
       <c r="L2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>94</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:17" ht="15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2014,19 +2017,23 @@
       <c r="L3">
         <v>60</v>
       </c>
-      <c r="N3" s="2">
+      <c r="M3">
+        <f t="shared" ref="M3:M15" si="0">(12-3*K3)/(L3*0.001)</f>
+        <v>30.000000000000014</v>
+      </c>
+      <c r="O3" s="2">
         <v>0.1</v>
       </c>
-      <c r="O3" s="46">
+      <c r="P3" s="52">
         <f>Kenndaten!$B$4/'SMD LEDs'!J3</f>
         <v>90.909090909090907</v>
       </c>
-      <c r="P3" s="19">
-        <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$3,0)</f>
+      <c r="Q3" s="19">
+        <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$P$3,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -2063,16 +2070,20 @@
       <c r="L4">
         <v>60</v>
       </c>
-      <c r="N4" s="2">
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O4" s="2">
         <v>0.1</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="19">
-        <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$3,0)</f>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="19">
+        <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$P$3,0)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:17" ht="15">
       <c r="A5" s="26" t="s">
         <v>56</v>
       </c>
@@ -2107,17 +2118,21 @@
       <c r="L5" s="26">
         <v>60</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31">
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31">
         <v>0.1</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="19">
-        <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$3,0)</f>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="19">
+        <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$P$3,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:17" ht="15">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -2154,20 +2169,24 @@
       <c r="L6" s="34">
         <v>150</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38">
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38">
         <v>0.18</v>
       </c>
-      <c r="O6" s="48">
+      <c r="P6" s="54">
         <f>Kenndaten!$B$4/'SMD LEDs'!J6</f>
         <v>36.363636363636367</v>
       </c>
-      <c r="P6" s="39">
-        <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$6,0)</f>
+      <c r="Q6" s="39">
+        <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$P$6,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2202,17 +2221,21 @@
       <c r="L7" s="34">
         <v>150</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38">
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38">
         <v>0.18</v>
       </c>
-      <c r="O7" s="49"/>
-      <c r="P7" s="39">
-        <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$6,0)</f>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="39">
+        <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$P$6,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="26" customFormat="1" ht="15">
+    <row r="8" spans="1:17" s="26" customFormat="1" ht="15">
       <c r="A8" s="26" t="s">
         <v>56</v>
       </c>
@@ -2246,17 +2269,21 @@
       <c r="L8" s="26">
         <v>150</v>
       </c>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31">
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31">
         <v>0.18</v>
       </c>
-      <c r="O8" s="47"/>
-      <c r="P8" s="32">
-        <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$6,0)</f>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="32">
+        <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$P$6,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:17" ht="15">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -2264,7 +2291,7 @@
         <v>97</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>28</v>
@@ -2284,14 +2311,18 @@
       <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9">
+        <v>60</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N9" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:17" ht="15">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -2299,7 +2330,7 @@
         <v>97</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
@@ -2319,14 +2350,18 @@
       <c r="K10">
         <v>3.3</v>
       </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10">
+        <v>60</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>35.000000000000028</v>
+      </c>
+      <c r="N10" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:17" ht="15">
       <c r="A11" t="s">
         <v>96</v>
       </c>
@@ -2334,7 +2369,7 @@
         <v>97</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>28</v>
@@ -2351,8 +2386,12 @@
       <c r="J11" s="20">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15">
+      <c r="M11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15">
       <c r="A12" s="26" t="s">
         <v>96</v>
       </c>
@@ -2362,7 +2401,7 @@
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>25</v>
@@ -2381,29 +2420,33 @@
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="26"/>
-      <c r="M12" s="31"/>
+      <c r="M12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N12" s="31"/>
-      <c r="O12" s="26"/>
+      <c r="O12" s="31"/>
       <c r="P12" s="26"/>
-    </row>
-    <row r="13" spans="1:16" ht="15">
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" ht="15">
       <c r="A13" t="s">
         <v>38</v>
       </c>
       <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>101</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" s="40" t="s">
         <v>102</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>103</v>
       </c>
       <c r="F13" s="41" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1">
         <v>3500</v>
@@ -2420,28 +2463,32 @@
       <c r="L13">
         <v>150</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>12.000000000000005</v>
+      </c>
+      <c r="N13" s="2">
         <v>0.41</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:17" ht="15">
       <c r="A14" t="s">
         <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H14" s="1">
         <v>1400</v>
@@ -2458,11 +2505,15 @@
       <c r="L14">
         <v>150</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="N14" s="2">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:17" ht="15">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2470,10 +2521,10 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F15" s="41" t="s">
         <v>28</v>
@@ -2496,11 +2547,15 @@
       <c r="L15">
         <v>350</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999947</v>
+      </c>
+      <c r="N15" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:17" ht="15">
       <c r="A16" s="26" t="s">
         <v>38</v>
       </c>
@@ -2508,11 +2563,11 @@
         <v>43</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="26"/>
       <c r="E16" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>25</v>
@@ -2535,22 +2590,26 @@
       <c r="L16" s="26">
         <v>350</v>
       </c>
-      <c r="M16" s="31">
+      <c r="M16">
+        <f t="shared" ref="M14:M20" si="1">(12-3*K16)/(L16*0.001)</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="N16" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="26"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="26"/>
-    </row>
-    <row r="17" spans="1:14" ht="15">
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="1:15" ht="15">
       <c r="A17" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>111</v>
-      </c>
       <c r="E17" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="41" t="s">
         <v>28</v>
@@ -2570,22 +2629,26 @@
       <c r="K17" s="40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="N17" s="2">
+      <c r="L17">
+        <v>60</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="O17" s="2">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="44" t="s">
-        <v>111</v>
-      </c>
       <c r="E18" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="45" t="s">
         <v>25</v>
@@ -2605,22 +2668,26 @@
       <c r="K18">
         <v>3.2</v>
       </c>
-      <c r="L18" t="s">
-        <v>99</v>
-      </c>
-      <c r="N18" s="2">
+      <c r="L18">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>39.999999999999979</v>
+      </c>
+      <c r="O18" s="2">
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="E19" s="40" t="s">
         <v>111</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>112</v>
       </c>
       <c r="F19" s="41" t="s">
         <v>28</v>
@@ -2640,22 +2707,26 @@
       <c r="K19" s="40">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L19" t="s">
-        <v>99</v>
-      </c>
-      <c r="N19" s="2">
+      <c r="L19">
+        <v>60</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="O19" s="2">
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="E20" s="40" t="s">
         <v>111</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>112</v>
       </c>
       <c r="F20" s="45" t="s">
         <v>25</v>
@@ -2675,17 +2746,21 @@
       <c r="K20">
         <v>3.2</v>
       </c>
-      <c r="L20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" s="2">
+      <c r="L20">
+        <v>60</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>39.999999999999979</v>
+      </c>
+      <c r="O20" s="2">
         <v>0.33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P3:P5"/>
+    <mergeCell ref="P6:P8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>

--- a/LEDs.xlsx
+++ b/LEDs.xlsx
@@ -1,19 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Kenndaten" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="5mm LEDs" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="SMD LEDs" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Berechnungshilfen" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Kenndaten" sheetId="1" r:id="rId1"/>
+    <sheet name="5mm LEDs" sheetId="2" r:id="rId2"/>
+    <sheet name="SMD LEDs" sheetId="3" r:id="rId3"/>
+    <sheet name="Berechnungshilfen" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -401,53 +400,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="166" formatCode="0%"/>
-    <numFmt numFmtId="167" formatCode="#,##0"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -461,7 +420,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -469,7 +428,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -477,7 +436,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -499,7 +458,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -507,7 +466,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -515,6 +474,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -559,21 +525,23 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -588,299 +556,98 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="27" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="29" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="3" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="25" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="25" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="16">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1 1" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result 1" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2 1" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Standard 2" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 20% - Accent5" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in 20% - Accent6" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent1" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Accent2" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="4">
+    <cellStyle name="Explanatory Text" xfId="3" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -939,13 +706,26 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -961,12 +741,12 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Grafik 1" descr=""/>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:srcRect l="0" t="16349" r="0" b="26835"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="16349" b="26835"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -987,941 +767,1234 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6186046511628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.246511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.8697674418605"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.75348837209302"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.37674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.12093023255814"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="10.6651162790698"/>
+    <col min="1" max="1" width="12.875"/>
+    <col min="2" max="2" width="14.625"/>
+    <col min="3" max="3" width="7.75"/>
+    <col min="4" max="4" width="12.25"/>
+    <col min="5" max="5" width="11.875"/>
+    <col min="6" max="6" width="7.75"/>
+    <col min="7" max="7" width="6.375"/>
+    <col min="8" max="8" width="8.125"/>
+    <col min="9" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">B3*B2</f>
+      <c r="B4">
+        <f>B3*B2</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="0" t="s">
+      <c r="K11" t="s">
         <v>13</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" t="s">
         <v>14</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>140</v>
       </c>
-      <c r="D12" s="8" t="n">
-        <f aca="false">C12/$C$19</f>
-        <v>0.277777777777778</v>
-      </c>
-      <c r="E12" s="8" t="n">
-        <f aca="false">C12/SUM($C$12:$C$14)</f>
-        <v>0.357142857142857</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="10">
+        <f>C12/$C$19</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E12" s="10">
+        <f>C12/SUM($C$12:$C$14)</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="F12" s="4">
         <v>12</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="5">
         <v>55</v>
       </c>
-      <c r="H12" s="3" t="n">
-        <f aca="false">F12*G12</f>
+      <c r="H12" s="5">
+        <f>F12*G12</f>
         <v>660</v>
       </c>
-      <c r="I12" s="8" t="n">
-        <f aca="false">F12/$F$20</f>
-        <v>0.260869565217391</v>
-      </c>
-      <c r="J12" s="8" t="n">
-        <f aca="false">F12/SUM(F$12:F$14)</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="K12" s="0" t="n">
+      <c r="I12" s="10">
+        <f>F12/$F$20</f>
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="J12" s="10">
+        <f>F12/SUM(F$12:F$14)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K12">
         <v>3.5</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>0.15</v>
       </c>
-      <c r="M12" s="0" t="n">
-        <f aca="false">(12-3*K12)/L12</f>
+      <c r="M12">
+        <f>(12-3*K12)/L12</f>
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>204</v>
       </c>
-      <c r="D13" s="8" t="n">
-        <f aca="false">C13/$C$19</f>
-        <v>0.404761904761905</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <f aca="false">C13/SUM($C$12:$C$14)</f>
-        <v>0.520408163265306</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="D13" s="10">
+        <f>C13/$C$19</f>
+        <v>0.40476190476190477</v>
+      </c>
+      <c r="E13" s="10">
+        <f>C13/SUM($C$12:$C$14)</f>
+        <v>0.52040816326530615</v>
+      </c>
+      <c r="F13" s="4">
         <v>18</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="5">
         <v>55</v>
       </c>
-      <c r="H13" s="3" t="n">
-        <f aca="false">F13*G13</f>
+      <c r="H13" s="5">
+        <f>F13*G13</f>
         <v>990</v>
       </c>
-      <c r="I13" s="8" t="n">
-        <f aca="false">F13/$F$20</f>
-        <v>0.391304347826087</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <f aca="false">F13/SUM(F$12:F$14)</f>
+      <c r="I13" s="10">
+        <f>F13/$F$20</f>
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="J13" s="10">
+        <f>F13/SUM(F$12:F$14)</f>
         <v>0.5</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>3.5</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>0.15</v>
       </c>
-      <c r="M13" s="0" t="n">
-        <f aca="false">(12-3*K13)/L13</f>
+      <c r="M13">
+        <f>(12-3*K13)/L13</f>
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="n">
-        <f aca="false">C14/$C$19</f>
-        <v>0.0952380952380952</v>
-      </c>
-      <c r="E14" s="8" t="n">
-        <f aca="false">C14/SUM($C$12:$C$14)</f>
-        <v>0.122448979591837</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="D14" s="10">
+        <f>C14/$C$19</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E14" s="10">
+        <f>C14/SUM($C$12:$C$14)</f>
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="F14" s="4">
         <v>6</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="5">
         <v>55</v>
       </c>
-      <c r="H14" s="3" t="n">
-        <f aca="false">F14*G14</f>
+      <c r="H14" s="5">
+        <f>F14*G14</f>
         <v>330</v>
       </c>
-      <c r="I14" s="8" t="n">
-        <f aca="false">F14/$F$20</f>
-        <v>0.130434782608696</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <f aca="false">F14/SUM(F$12:F$14)</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="I14" s="10">
+        <f>F14/$F$20</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="J14" s="10">
+        <f>F14/SUM(F$12:F$14)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K14">
         <v>3.5</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>0.15</v>
       </c>
-      <c r="M14" s="0" t="n">
-        <f aca="false">(12-3*K14)/L14</f>
+      <c r="M14">
+        <f>(12-3*K14)/L14</f>
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="2" t="n">
-        <f aca="false">SUM(F12:F14)</f>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="4">
+        <f>SUM(F12:F14)</f>
         <v>36</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>48</v>
       </c>
-      <c r="D17" s="8" t="n">
-        <f aca="false">C17/$C$19</f>
-        <v>0.0952380952380952</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="10">
+        <f>C17/$C$19</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="4">
         <v>4</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="11">
         <v>4</v>
       </c>
-      <c r="H17" s="3" t="n">
-        <f aca="false">F17*G17</f>
+      <c r="H17" s="5">
+        <f>F17*G17</f>
         <v>16</v>
       </c>
-      <c r="I17" s="8" t="n">
-        <f aca="false">F17/$F$20</f>
-        <v>0.0869565217391304</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="I17" s="10">
+        <f>F17/$F$20</f>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="K17">
+        <v>3.5</v>
+      </c>
+      <c r="L17">
+        <v>0.15</v>
+      </c>
+      <c r="M17">
+        <f>(12-3*K17)/L17</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>64</v>
       </c>
-      <c r="D18" s="8" t="n">
-        <f aca="false">C18/$C$19</f>
-        <v>0.126984126984127</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="10">
+        <f>C18/$C$19</f>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="E18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="4">
         <v>6</v>
       </c>
-      <c r="G18" s="9" t="n">
+      <c r="G18" s="11">
         <v>11</v>
       </c>
-      <c r="H18" s="3" t="n">
-        <f aca="false">F18*G18</f>
+      <c r="H18" s="5">
+        <f>F18*G18</f>
         <v>66</v>
       </c>
-      <c r="I18" s="8" t="n">
-        <f aca="false">F18/$F$20</f>
-        <v>0.130434782608696</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="10" t="s">
+      <c r="I18" s="10">
+        <f>F18/$F$20</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="K18">
+        <v>2.9</v>
+      </c>
+      <c r="L18">
+        <v>0.15</v>
+      </c>
+      <c r="M18">
+        <f>(12-3*K18)/L18</f>
+        <v>22.000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="10" t="n">
-        <f aca="false">SUM(C12:C18)</f>
+      <c r="C19" s="12">
+        <f>SUM(C12:C18)</f>
         <v>504</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="F19" s="12" t="n">
-        <f aca="false">SUM(F17:F18)</f>
+      <c r="D19" s="13"/>
+      <c r="F19" s="14">
+        <f>SUM(F17:F18)</f>
         <v>10</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="F20" s="13" t="n">
-        <f aca="false">F19+F15</f>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="F20" s="15">
+        <f>F19+F15</f>
         <v>46</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>35</v>
       </c>
-      <c r="F21" s="10" t="n">
-        <f aca="false">0.5*F19</f>
+      <c r="F21" s="12">
+        <f>0.5*F19</f>
         <v>5</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>2580</v>
       </c>
-      <c r="H22" s="10" t="n">
-        <f aca="false">SUM(H12:H18)</f>
+      <c r="H22" s="12">
+        <f>SUM(H12:H18)</f>
         <v>2062</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.753488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.506976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6186046511628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="8.37674418604651"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="7.25116279069767"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61860465116279"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="6.75348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="15" width="10.2558139534884"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="15" width="10.6232558139535"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.6651162790698"/>
+    <col min="1" max="1" width="10.625"/>
+    <col min="2" max="2" width="12.5"/>
+    <col min="3" max="3" width="15.75"/>
+    <col min="4" max="4" width="24.5"/>
+    <col min="5" max="5" width="23.625"/>
+    <col min="7" max="7" width="8.375" style="16"/>
+    <col min="8" max="8" width="7.25" style="16"/>
+    <col min="9" max="9" width="6.625"/>
+    <col min="10" max="12" width="6.75"/>
+    <col min="13" max="13" width="10.25" style="17"/>
+    <col min="14" max="14" width="10.625" style="17"/>
+    <col min="15" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="16">
         <v>18000</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="n">
-        <v>1.71820265502128</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="15" t="n">
+      <c r="J3" s="18">
+        <v>1.7182026550212799</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="17">
         <v>0.16</v>
       </c>
-      <c r="N3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="16">
         <v>18000</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>20</v>
       </c>
-      <c r="J4" s="16" t="n">
-        <v>1.71820265502128</v>
-      </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="15" t="n">
+      <c r="J4" s="18">
+        <v>1.7182026550212799</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="17">
         <v>0.16</v>
       </c>
-      <c r="N4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="16">
         <v>38000</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="J5" s="16" t="n">
-        <v>3.62731671615604</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="15" t="n">
+      <c r="J5" s="18">
+        <v>3.6273167161560398</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="17">
         <v>0.52</v>
       </c>
-      <c r="N5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="14" t="n">
+      <c r="H6" s="16">
         <v>38000</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>20</v>
       </c>
-      <c r="J6" s="16" t="n">
-        <v>3.62731671615604</v>
-      </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="15" t="n">
+      <c r="J6" s="18">
+        <v>3.6273167161560398</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="17">
         <v>0.59</v>
       </c>
-      <c r="N6" s="15" t="n">
+      <c r="N6" s="17">
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="14" t="n">
+      <c r="H7" s="16">
         <v>13950</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>20</v>
       </c>
-      <c r="J7" s="16" t="n">
+      <c r="J7" s="18">
         <v>1.33160705764149</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="15" t="n">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="17">
         <v>0.59</v>
       </c>
-      <c r="N7" s="15" t="n">
+      <c r="N7" s="17">
         <v>0.49</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="14" t="n">
+      <c r="H8" s="16">
         <v>14000</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>20</v>
       </c>
-      <c r="J8" s="16" t="n">
-        <v>1.33637984279433</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="15" t="n">
+      <c r="J8" s="18">
+        <v>1.3363798427943301</v>
+      </c>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="17">
         <v>0.52</v>
       </c>
-      <c r="N8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="16">
         <v>9600</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>30</v>
       </c>
-      <c r="J9" s="16" t="n">
-        <v>2.05530573710218</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="15" t="n">
+      <c r="J9" s="18">
+        <v>2.0553057371021799</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="17">
         <v>0.59</v>
       </c>
-      <c r="N9" s="15" t="n">
+      <c r="N9" s="17">
         <v>0.49</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="16">
         <v>18000</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>20</v>
       </c>
-      <c r="J10" s="16" t="n">
-        <v>1.71820265502128</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15" t="n">
+      <c r="J10" s="18">
+        <v>1.7182026550212799</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="17">
         <v>0.12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="16">
         <v>24000</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="n">
-        <v>2.29093687336171</v>
-      </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="15" t="n">
+      <c r="J11" s="18">
+        <v>2.2909368733617099</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17">
         <v>0.12</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="14" t="n">
+      <c r="H12" s="16">
         <v>16500</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>24</v>
       </c>
-      <c r="J12" s="16" t="n">
-        <v>2.26549412093357</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="15" t="n">
+      <c r="J12" s="18">
+        <v>2.2654941209335702</v>
+      </c>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="17">
         <v>0.12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="16">
         <v>18000</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="J13" s="16" t="n">
-        <v>1.71820265502128</v>
-      </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="15" t="n">
+      <c r="J13" s="18">
+        <v>1.7182026550212799</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17">
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="16">
         <v>11000</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>30</v>
       </c>
-      <c r="J14" s="16" t="n">
-        <v>2.35503782376292</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="15" t="n">
+      <c r="J14" s="18">
+        <v>2.3550378237629199</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="17">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="16">
         <v>14250</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>30</v>
       </c>
-      <c r="J15" s="16" t="n">
-        <v>3.05084445351105</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="15" t="n">
+      <c r="J15" s="18">
+        <v>3.0508444535110502</v>
+      </c>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17">
         <v>0.38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" t="s">
         <v>78</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="14" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="14" t="n">
+      <c r="H16" s="16">
         <v>4700</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>30</v>
       </c>
-      <c r="J16" s="16" t="n">
+      <c r="J16" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J22" s="0" t="s">
+    <row r="22" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
@@ -1929,806 +2002,803 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6232558139535"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5023255813953"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.506976744186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.6186046511628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="14" width="11.1255813953488"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="14" width="7.25116279069767"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.61860465116279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="24" width="6.75348837209302"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="6.75348837209302"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="15" width="10.2558139534884"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="15" width="10.6232558139535"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="12.3813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.62325581395349"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="10.6651162790698"/>
+    <col min="1" max="1" width="10.625"/>
+    <col min="2" max="2" width="12.5"/>
+    <col min="3" max="3" width="17.125"/>
+    <col min="4" max="4" width="24.5"/>
+    <col min="5" max="5" width="23.625"/>
+    <col min="7" max="7" width="11.125" style="16"/>
+    <col min="8" max="8" width="7.25" style="16"/>
+    <col min="9" max="9" width="6.625"/>
+    <col min="10" max="10" width="6.75" style="26"/>
+    <col min="11" max="12" width="6.75"/>
+    <col min="13" max="13" width="10.25" style="17"/>
+    <col min="14" max="14" width="10.625" style="17"/>
+    <col min="15" max="15" width="12.375"/>
+    <col min="16" max="16" width="9.625"/>
+    <col min="17" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-      <c r="J1" s="0"/>
-      <c r="M1" s="0"/>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="J1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="P2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>121338</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="16">
         <v>7000</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>120</v>
       </c>
-      <c r="J3" s="24" t="n">
+      <c r="J3" s="26">
         <v>22</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>3.4</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>60</v>
       </c>
-      <c r="M3" s="0"/>
-      <c r="N3" s="15" t="n">
+      <c r="M3"/>
+      <c r="N3" s="17">
         <v>0.1</v>
       </c>
-      <c r="O3" s="25" t="n">
-        <f aca="false">Kenndaten!$B$4/'SMD LEDs'!J3</f>
-        <v>90.9090909090909</v>
-      </c>
-      <c r="P3" s="26" t="n">
-        <f aca="false">ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$3,0)</f>
+      <c r="O3" s="2">
+        <f>Kenndaten!$B$4/'SMD LEDs'!J3</f>
+        <v>90.909090909090907</v>
+      </c>
+      <c r="P3" s="27">
+        <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$3,0)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>121336</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="16">
         <v>7000</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>120</v>
       </c>
-      <c r="J4" s="24" t="n">
+      <c r="J4" s="26">
         <v>22</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>60</v>
       </c>
-      <c r="M4" s="0"/>
-      <c r="N4" s="15" t="n">
+      <c r="M4"/>
+      <c r="N4" s="17">
         <v>0.1</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26" t="n">
-        <f aca="false">ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$3,0)</f>
+      <c r="O4" s="2"/>
+      <c r="P4" s="27">
+        <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$3,0)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="28">
         <v>121337</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="27" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="16">
         <v>7000</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="28">
         <v>120</v>
       </c>
-      <c r="J5" s="31" t="n">
+      <c r="J5" s="32">
         <v>22</v>
       </c>
-      <c r="K5" s="27" t="n">
+      <c r="K5" s="28">
         <v>3</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="28">
         <v>60</v>
       </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32" t="n">
+      <c r="M5" s="33"/>
+      <c r="N5" s="33">
         <v>0.1</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26" t="n">
-        <f aca="false">ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$3,0)</f>
+      <c r="O5" s="2"/>
+      <c r="P5" s="27">
+        <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$3,0)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6">
         <v>121341</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="34">
         <v>17500</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="5">
         <v>120</v>
       </c>
-      <c r="J6" s="34" t="n">
+      <c r="J6" s="35">
         <v>55</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="5">
         <v>3</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="5">
         <v>150</v>
       </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35" t="n">
+      <c r="M6" s="36"/>
+      <c r="N6" s="36">
         <v>0.18</v>
       </c>
-      <c r="O6" s="36" t="n">
-        <f aca="false">Kenndaten!$B$4/'SMD LEDs'!J6</f>
-        <v>36.3636363636364</v>
-      </c>
-      <c r="P6" s="37" t="n">
-        <f aca="false">ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$6,0)</f>
+      <c r="O6" s="1">
+        <f>Kenndaten!$B$4/'SMD LEDs'!J6</f>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="P6" s="37">
+        <f>ROUNDUP(Kenndaten!E12*'SMD LEDs'!$O$6,0)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>121340</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="33" t="n">
+      <c r="H7" s="34">
         <v>17500</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="5">
         <v>120</v>
       </c>
-      <c r="J7" s="34" t="n">
+      <c r="J7" s="35">
         <v>55</v>
       </c>
-      <c r="K7" s="9" t="n">
+      <c r="K7" s="11">
         <v>3</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="5">
         <v>150</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35" t="n">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <v>0.18</v>
       </c>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37" t="n">
-        <f aca="false">ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$6,0)</f>
+      <c r="O7" s="1"/>
+      <c r="P7" s="37">
+        <f>ROUNDUP(Kenndaten!E13*'SMD LEDs'!$O$6,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="27" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:16" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="28">
         <v>121341</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="H8" s="33" t="n">
+      <c r="H8" s="34">
         <v>17500</v>
       </c>
-      <c r="I8" s="27" t="n">
+      <c r="I8" s="28">
         <v>120</v>
       </c>
-      <c r="J8" s="31" t="n">
+      <c r="J8" s="32">
         <v>55</v>
       </c>
-      <c r="K8" s="27" t="n">
+      <c r="K8" s="28">
         <v>3</v>
       </c>
-      <c r="L8" s="27" t="n">
+      <c r="L8" s="28">
         <v>150</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32" t="n">
+      <c r="M8" s="33"/>
+      <c r="N8" s="33">
         <v>0.18</v>
       </c>
-      <c r="O8" s="36"/>
-      <c r="P8" s="38" t="n">
-        <f aca="false">ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$6,0)</f>
+      <c r="O8" s="1"/>
+      <c r="P8" s="38">
+        <f>ROUNDUP(Kenndaten!E14*'SMD LEDs'!$O$6,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="14" t="n">
+      <c r="H9" s="16">
         <v>3500</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>120</v>
       </c>
-      <c r="J9" s="24" t="n">
+      <c r="J9" s="26">
         <v>11</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="15" t="n">
+      <c r="M9" s="17">
         <v>0.2</v>
       </c>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="16">
         <v>7000</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>120</v>
       </c>
-      <c r="J10" s="24" t="n">
+      <c r="J10" s="26">
         <v>22</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>3.3</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" t="s">
         <v>101</v>
       </c>
-      <c r="M10" s="15" t="n">
+      <c r="M10" s="17">
         <v>0.2</v>
       </c>
-      <c r="N10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="14" t="n">
+      <c r="H11" s="16">
         <v>600</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>120</v>
       </c>
-      <c r="J11" s="24" t="n">
+      <c r="J11" s="26">
         <v>2</v>
       </c>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="11" t="s">
         <v>102</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="30" t="n">
+      <c r="H12" s="31">
         <v>900</v>
       </c>
-      <c r="I12" s="27" t="n">
+      <c r="I12" s="28">
         <v>120</v>
       </c>
-      <c r="J12" s="31" t="n">
+      <c r="J12" s="32">
         <v>3</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H13" s="14" t="n">
+      <c r="H13" s="16">
         <v>3500</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>120</v>
       </c>
-      <c r="J13" s="24" t="n">
+      <c r="J13" s="26">
         <v>11</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>3.4</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>150</v>
       </c>
-      <c r="M13" s="15" t="n">
+      <c r="M13" s="17">
         <v>0.41</v>
       </c>
-      <c r="N13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>107</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="14" t="n">
+      <c r="H14" s="16">
         <v>1400</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>120</v>
       </c>
-      <c r="J14" s="24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K14" s="0" t="n">
+      <c r="J14" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K14">
         <v>3.5</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>150</v>
       </c>
-      <c r="M14" s="15" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="N14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="M14" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H15" s="14" t="n">
+      <c r="H15" s="16">
         <v>19100</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>120</v>
       </c>
-      <c r="J15" s="24" t="n">
+      <c r="J15" s="26">
         <v>60</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>2.95</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>350</v>
       </c>
-      <c r="M15" s="15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N15" s="0"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
+      <c r="M15" s="17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="40" t="s">
         <v>110</v>
       </c>
       <c r="F16" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="30" t="n">
+      <c r="H16" s="31">
         <v>6300</v>
       </c>
-      <c r="I16" s="27" t="n">
+      <c r="I16" s="28">
         <v>120</v>
       </c>
-      <c r="J16" s="31" t="n">
+      <c r="J16" s="32">
         <v>20</v>
       </c>
-      <c r="K16" s="27" t="n">
+      <c r="K16" s="28">
         <v>3.5</v>
       </c>
-      <c r="L16" s="27" t="n">
+      <c r="L16" s="28">
         <v>350</v>
       </c>
-      <c r="M16" s="32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="M16" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N16" s="33"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="14" t="n">
+      <c r="H17" s="16">
         <v>6000</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="11">
         <v>120</v>
       </c>
-      <c r="J17" s="24" t="n">
+      <c r="J17" s="26">
         <v>19</v>
       </c>
-      <c r="K17" s="9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L17" s="0" t="s">
+      <c r="K17" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L17" t="s">
         <v>101</v>
       </c>
-      <c r="N17" s="15" t="n">
+      <c r="N17" s="17">
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="14" t="n">
+      <c r="H18" s="16">
         <v>7000</v>
       </c>
-      <c r="I18" s="9" t="n">
+      <c r="I18" s="11">
         <v>120</v>
       </c>
-      <c r="J18" s="24" t="n">
+      <c r="J18" s="26">
         <v>22</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>3.2</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="15" t="n">
+      <c r="N18" s="17">
         <v>0.33</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="14" t="s">
+      <c r="G19" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="14" t="n">
+      <c r="H19" s="16">
         <v>1500</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="11">
         <v>120</v>
       </c>
-      <c r="J19" s="24" t="n">
+      <c r="J19" s="26">
         <v>4.7</v>
       </c>
-      <c r="K19" s="9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L19" s="0" t="s">
+      <c r="K19" s="11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L19" t="s">
         <v>101</v>
       </c>
-      <c r="N19" s="15" t="n">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="s">
+      <c r="N19" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="14" t="n">
+      <c r="H20" s="16">
         <v>1000</v>
       </c>
-      <c r="I20" s="9" t="n">
+      <c r="I20" s="11">
         <v>120</v>
       </c>
-      <c r="J20" s="24" t="n">
+      <c r="J20" s="26">
         <v>3</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>3.2</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" t="s">
         <v>101</v>
       </c>
-      <c r="N20" s="15" t="n">
+      <c r="N20" s="17">
         <v>0.33</v>
       </c>
     </row>
@@ -2738,18 +2808,17 @@
     <mergeCell ref="O6:O8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="Datenblätter\D121338D.PDF"/>
-    <hyperlink ref="D4" r:id="rId2" display="Datenblätter\D121336D.PDF"/>
-    <hyperlink ref="D6" r:id="rId3" display="Datenblätter\D121341D.PDF"/>
-    <hyperlink ref="C17" r:id="rId4" display="Link"/>
-    <hyperlink ref="C18" r:id="rId5" display="Link"/>
-    <hyperlink ref="C19" r:id="rId6" display="Link"/>
-    <hyperlink ref="C20" r:id="rId7" display="Link"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D6" r:id="rId3"/>
+    <hyperlink ref="C17" r:id="rId4"/>
+    <hyperlink ref="C18" r:id="rId5"/>
+    <hyperlink ref="C19" r:id="rId6"/>
+    <hyperlink ref="C20" r:id="rId7"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
@@ -2757,28 +2826,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.6232558139535"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="10.6651162790698"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>115</v>
       </c>
@@ -2797,20 +2862,20 @@
       </c>
       <c r="G4" s="42"/>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="44" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="44">
         <v>0.31</v>
       </c>
-      <c r="B5" s="44" t="n">
+      <c r="B5" s="44">
         <v>0.32</v>
       </c>
-      <c r="C5" s="45" t="n">
-        <f aca="false">(A5-0.332)/(0.1858-B5)</f>
-        <v>0.163934426229508</v>
-      </c>
-      <c r="D5" s="46" t="n">
-        <f aca="false">(437*C5^3)+(3601*C5^2)+(6831*C5)+5517</f>
-        <v>6735.5363973196</v>
+      <c r="C5" s="45">
+        <f>(A5-0.332)/(0.1858-B5)</f>
+        <v>0.16393442622950832</v>
+      </c>
+      <c r="D5" s="46">
+        <f>(437*C5^3)+(3601*C5^2)+(6831*C5)+5517</f>
+        <v>6735.5363973195999</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="47"/>
@@ -2818,44 +2883,43 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>1.33</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9">
         <v>7.50210052674504</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CSeite &amp;P</oddFooter>
   </headerFooter>
